--- a/2_pipeline/preprocessed/frequency_concepts.xlsx
+++ b/2_pipeline/preprocessed/frequency_concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawaiyuen/nlpworkshop/concept-creep-chi/2_pipeline/preprocessed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C9389A7-0401-444A-9652-EFFAAE0F18A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C12FA6A-BB6F-3D49-835E-D90FE325CE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="frequency_concepts" sheetId="1" r:id="rId1"/>
@@ -33,33 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>ÂÅèËßÅ_freq</t>
-  </si>
-  <si>
-    <t>Ê¨∫Âáå_freq</t>
-  </si>
-  <si>
-    <t>Á≤æÁ•ûÁóÖ_freq</t>
-  </si>
-  <si>
-    <t>Âàõ‰º§_freq</t>
-  </si>
-  <si>
-    <t>ÂàÜË£Ç_freq</t>
-  </si>
-  <si>
-    <t>Èò¥Ë∞ã_freq</t>
-  </si>
-  <si>
-    <t>‰∏ªÊùÉ_freq</t>
-  </si>
-  <si>
-    <t>ÊÅêÊÄñ‰∏ª‰πâ_freq</t>
   </si>
   <si>
     <t>Token Count</t>
@@ -86,16 +62,10 @@
     <t>sovereignty_relativefreq</t>
   </si>
   <si>
-    <t>terrorims_relativefreq</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>SD</t>
-  </si>
-  <si>
-    <t>1939-1993</t>
   </si>
   <si>
     <t>1994-2008</t>
@@ -103,11 +73,41 @@
   <si>
     <t>2009-2023</t>
   </si>
+  <si>
+    <t>prejudice_freq</t>
+  </si>
+  <si>
+    <t>bullying_freq</t>
+  </si>
+  <si>
+    <t>mental disorder_freq</t>
+  </si>
+  <si>
+    <t>trauma_freq</t>
+  </si>
+  <si>
+    <t>secession_freq</t>
+  </si>
+  <si>
+    <t>conspiracy_freq</t>
+  </si>
+  <si>
+    <t>sovereignty_freq</t>
+  </si>
+  <si>
+    <t>terrorism_freq</t>
+  </si>
+  <si>
+    <t>terrorism_relativefreq</t>
+  </si>
+  <si>
+    <t>1979-1993</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -961,11 +961,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,55 +978,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -3911,377 +3911,359 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <f>AVERAGE(B2:B46)</f>
+        <f t="shared" ref="B47:I47" si="9">AVERAGE(B2:B46)</f>
         <v>138.55555555555554</v>
       </c>
       <c r="C47">
-        <f>AVERAGE(C2:C46)</f>
+        <f t="shared" si="9"/>
         <v>55.511111111111113</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D46)</f>
+        <f t="shared" si="9"/>
         <v>50.888888888888886</v>
       </c>
       <c r="E47">
-        <f>AVERAGE(E2:E46)</f>
+        <f t="shared" si="9"/>
         <v>91.111111111111114</v>
       </c>
       <c r="F47">
-        <f>AVERAGE(F2:F46)</f>
+        <f t="shared" si="9"/>
         <v>559.44444444444446</v>
       </c>
       <c r="G47">
-        <f>AVERAGE(G2:G46)</f>
+        <f t="shared" si="9"/>
         <v>139.66666666666666</v>
       </c>
       <c r="H47">
-        <f>AVERAGE(H2:H46)</f>
+        <f t="shared" si="9"/>
         <v>709.13333333333333</v>
       </c>
       <c r="I47">
-        <f>AVERAGE(I2:I46)</f>
+        <f t="shared" si="9"/>
         <v>412.2</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K47">
         <f>AVERAGE(K2:K46)</f>
         <v>18.360717452617273</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47:R47" si="9">AVERAGE(L2:L46)</f>
+        <f t="shared" ref="L47:R47" si="10">AVERAGE(L2:L46)</f>
         <v>7.3560661101263758</v>
       </c>
       <c r="M47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.743551397994155</v>
       </c>
       <c r="N47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.073607306452422</v>
       </c>
       <c r="O47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74.134893643887708</v>
       </c>
       <c r="P47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.507956566110593</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>93.970947013708084</v>
       </c>
       <c r="R47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54.622766323752664</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <f>_xlfn.STDEV.P(B2:B46)</f>
-        <v>61.175723418709723</v>
+        <f>_xlfn.STDEV.S(B2:B46)</f>
+        <v>61.866996472475151</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:I48" si="10">_xlfn.STDEV.P(C2:C46)</f>
-        <v>62.933694286472722</v>
+        <f t="shared" ref="C48:I48" si="11">_xlfn.STDEV.S(C2:C46)</f>
+        <v>63.644832048365458</v>
       </c>
       <c r="D48">
-        <f t="shared" si="10"/>
-        <v>28.673814784939022</v>
+        <f t="shared" si="11"/>
+        <v>28.997822976453545</v>
       </c>
       <c r="E48">
-        <f t="shared" si="10"/>
-        <v>29.679938770693223</v>
+        <f t="shared" si="11"/>
+        <v>30.015315955678226</v>
       </c>
       <c r="F48">
-        <f t="shared" si="10"/>
-        <v>295.43448648129947</v>
+        <f t="shared" si="11"/>
+        <v>298.77283522888604</v>
       </c>
       <c r="G48">
-        <f t="shared" si="10"/>
-        <v>152.92205712569904</v>
+        <f t="shared" si="11"/>
+        <v>154.65004482261349</v>
       </c>
       <c r="H48">
-        <f t="shared" si="10"/>
-        <v>303.58382331372297</v>
+        <f t="shared" si="11"/>
+        <v>307.0142578862658</v>
       </c>
       <c r="I48">
-        <f t="shared" si="10"/>
-        <v>399.64509811136736</v>
+        <f t="shared" si="11"/>
+        <v>404.16100527118914</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K48">
-        <f>_xlfn.STDEV.P(K2:K46)</f>
-        <v>8.1067133551351542</v>
+        <f>_xlfn.STDEV.S(K2:K46)</f>
+        <v>8.1983175435915729</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48:R48" si="11">_xlfn.STDEV.P(L2:L46)</f>
-        <v>8.3396712200400014</v>
+        <f t="shared" ref="L48:R48" si="12">_xlfn.STDEV.S(L2:L46)</f>
+        <v>8.4339077843094401</v>
       </c>
       <c r="M48">
-        <f t="shared" si="11"/>
-        <v>3.7997163624655226</v>
+        <f t="shared" si="12"/>
+        <v>3.8426523734603792</v>
       </c>
       <c r="N48">
-        <f t="shared" si="11"/>
-        <v>3.9330430858196563</v>
+        <f t="shared" si="12"/>
+        <v>3.9774856612824272</v>
       </c>
       <c r="O48">
-        <f t="shared" si="11"/>
-        <v>39.149560696375289</v>
+        <f t="shared" si="12"/>
+        <v>39.591942655488864</v>
       </c>
       <c r="P48">
-        <f t="shared" si="11"/>
-        <v>20.264497312286792</v>
+        <f t="shared" si="12"/>
+        <v>20.493481951245741</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="11"/>
-        <v>40.229471714063322</v>
+        <f t="shared" si="12"/>
+        <v>40.684056444885563</v>
       </c>
       <c r="R48">
-        <f t="shared" si="11"/>
-        <v>52.959050962082543</v>
-      </c>
-    </row>
-    <row r="49" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49">
-        <f>AVERAGE(K2:K16)</f>
-        <v>16.387713331806758</v>
-      </c>
-      <c r="L49">
-        <f t="shared" ref="L49:R49" si="12">AVERAGE(L2:L16)</f>
-        <v>3.2068678918845568</v>
-      </c>
-      <c r="M49">
         <f t="shared" si="12"/>
-        <v>6.5727540263419009</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="12"/>
-        <v>11.016430471570365</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="12"/>
-        <v>49.931728167855418</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="12"/>
-        <v>38.703273372854667</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="12"/>
-        <v>84.968747614726354</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="12"/>
-        <v>12.535938122821452</v>
-      </c>
-    </row>
-    <row r="50" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="J50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50">
-        <f>_xlfn.STDEV.P(K2:K16)</f>
-        <v>7.3888630394212154</v>
-      </c>
-      <c r="L50">
-        <f t="shared" ref="L50:R50" si="13">_xlfn.STDEV.P(L2:L16)</f>
-        <v>1.1513835072724432</v>
-      </c>
-      <c r="M50">
+        <v>53.557477312229814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <f>AVERAGE(B2:B16)</f>
+        <v>123.66666666666667</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:I49" si="13">AVERAGE(C2:C16)</f>
+        <v>24.2</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="13"/>
-        <v>2.4052148028043252</v>
-      </c>
-      <c r="N50">
+        <v>49.6</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="13"/>
-        <v>3.5043082233469041</v>
-      </c>
-      <c r="O50">
+        <v>83.13333333333334</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="13"/>
-        <v>12.740788260326928</v>
-      </c>
-      <c r="P50">
+        <v>376.8</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="13"/>
-        <v>24.077418646843842</v>
-      </c>
-      <c r="Q50">
+        <v>292.06666666666666</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="13"/>
-        <v>27.421670190782873</v>
-      </c>
-      <c r="R50">
+        <v>641.20000000000005</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="13"/>
-        <v>13.275157513727821</v>
-      </c>
-    </row>
-    <row r="51" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I51" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51">
-        <f>AVERAGE(K17:K31)</f>
-        <v>13.507716271877374</v>
-      </c>
-      <c r="L51">
-        <f t="shared" ref="L51:R51" si="14">AVERAGE(L17:L31)</f>
-        <v>3.9842904111292983</v>
-      </c>
-      <c r="M51">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <f>_xlfn.STDEV.S(B2:B16)</f>
+        <v>57.715641191060499</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:I50" si="14">_xlfn.STDEV.S(C2:C16)</f>
+        <v>8.9936485524904892</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="14"/>
-        <v>6.6787661880570939</v>
-      </c>
-      <c r="N51">
+        <v>18.787533860819213</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="14"/>
-        <v>11.184283060952755</v>
-      </c>
-      <c r="O51">
+        <v>27.372735827218058</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="14"/>
-        <v>106.14467691733599</v>
-      </c>
-      <c r="P51">
+        <v>99.520421450646396</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="14"/>
-        <v>11.087105246047155</v>
-      </c>
-      <c r="Q51">
+        <v>188.07273162516776</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="14"/>
-        <v>83.943963384812818</v>
-      </c>
-      <c r="R51">
+        <v>214.19523804230576</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="14"/>
-        <v>65.992570667707</v>
-      </c>
-    </row>
-    <row r="52" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="J52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52">
-        <f>_xlfn.STDEV.P(K17:K31)</f>
-        <v>3.454376461974288</v>
-      </c>
-      <c r="L52">
-        <f t="shared" ref="L52:R52" si="15">_xlfn.STDEV.P(L17:L31)</f>
-        <v>2.0017935898359132</v>
-      </c>
-      <c r="M52">
+        <v>103.69446878760148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <f>AVERAGE(B17:B31)</f>
+        <v>101.93333333333334</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:I51" si="15">AVERAGE(C17:C31)</f>
+        <v>30.066666666666666</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="15"/>
-        <v>2.4313560526964646</v>
-      </c>
-      <c r="N52">
+        <v>50.4</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="15"/>
-        <v>4.0731416787833341</v>
-      </c>
-      <c r="O52">
+        <v>84.4</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="15"/>
-        <v>45.867721048238266</v>
-      </c>
-      <c r="P52">
+        <v>801</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="15"/>
-        <v>4.1043124074470425</v>
-      </c>
-      <c r="Q52">
+        <v>83.666666666666671</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="15"/>
-        <v>37.536791333230937</v>
-      </c>
-      <c r="R52">
+        <v>633.4666666666667</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="15"/>
-        <v>57.531542797063324</v>
-      </c>
-    </row>
-    <row r="53" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I53" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53">
-        <f>AVERAGE(K32:K46)</f>
-        <v>25.186722754167693</v>
-      </c>
-      <c r="L53">
-        <f t="shared" ref="L53:R53" si="16">AVERAGE(L32:L46)</f>
-        <v>14.877040027365272</v>
-      </c>
-      <c r="M53">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <f>_xlfn.STDEV.S(B17:B31)</f>
+        <v>26.982710513709804</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:I52" si="16">_xlfn.STDEV.S(C17:C31)</f>
+        <v>15.636343501446815</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="16"/>
-        <v>6.9791339795834686</v>
-      </c>
-      <c r="N53">
+        <v>18.991727522416546</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="16"/>
-        <v>14.020108386834137</v>
-      </c>
-      <c r="O53">
+        <v>31.815988792698921</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="16"/>
-        <v>66.328275846471769</v>
-      </c>
-      <c r="P53">
+        <v>358.28041691230789</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="16"/>
-        <v>5.7334910794299647</v>
-      </c>
-      <c r="Q53">
+        <v>32.059468551576515</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="16"/>
-        <v>113.00013004158502</v>
-      </c>
-      <c r="R53">
+        <v>293.20613584172844</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="16"/>
-        <v>85.339790180729537</v>
-      </c>
-    </row>
-    <row r="54" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="J54" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54">
-        <f>_xlfn.STDEV.P(K32:K46)</f>
-        <v>7.5226110103354404</v>
-      </c>
-      <c r="L54">
-        <f t="shared" ref="L54:R54" si="17">_xlfn.STDEV.P(L32:L46)</f>
-        <v>10.870497722531713</v>
-      </c>
-      <c r="M54">
+        <v>449.3884733724264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <f>AVERAGE(B32:B46)</f>
+        <v>190.06666666666666</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:I53" si="17">AVERAGE(C32:C46)</f>
+        <v>112.26666666666667</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="17"/>
-        <v>5.614990185620429</v>
-      </c>
-      <c r="N54">
+        <v>52.666666666666664</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="17"/>
-        <v>3.4407030611941547</v>
-      </c>
-      <c r="O54">
+        <v>105.8</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="17"/>
-        <v>25.700701601235803</v>
-      </c>
-      <c r="P54">
+        <v>500.53333333333336</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="17"/>
-        <v>3.0455313520118166</v>
-      </c>
-      <c r="Q54">
+        <v>43.266666666666666</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="17"/>
-        <v>46.374375274602698</v>
-      </c>
-      <c r="R54">
+        <v>852.73333333333335</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="17"/>
-        <v>45.648284735838295</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <f>_xlfn.STDEV.S(B32:B46)</f>
+        <v>58.760368892485296</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:I54" si="18">_xlfn.STDEV.S(C32:C46)</f>
+        <v>84.911270214994474</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="18"/>
+        <v>43.859624561396629</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="18"/>
+        <v>26.875905300366821</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="18"/>
+        <v>200.7524654417783</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="18"/>
+        <v>23.78915319055745</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="18"/>
+        <v>362.23797755198501</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="18"/>
+        <v>356.56636328819832</v>
       </c>
     </row>
   </sheetData>
